--- a/CONFIG/prtg-SCHEDULENAME-config.xlsx
+++ b/CONFIG/prtg-SCHEDULENAME-config.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\set\Documents\GitHub\prtg-autoscheduler\CONFIG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F09134-9440-4AD8-93A8-FB3DA2541585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363B0D36-368C-49EE-8EA8-C03FEA1AC530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{43D695CF-2A04-4EF3-879C-9E33F61BABF0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{43D695CF-2A04-4EF3-879C-9E33F61BABF0}"/>
   </bookViews>
   <sheets>
     <sheet name="PRTGDEFAULT_SETTING" sheetId="1" r:id="rId1"/>
     <sheet name="PRTGSPECIALDAY_SETTING" sheetId="2" r:id="rId2"/>
     <sheet name="SPECIALDAYS" sheetId="3" r:id="rId3"/>
     <sheet name="CUSTOM" sheetId="4" r:id="rId4"/>
-    <sheet name="REFERENCE" sheetId="5" r:id="rId5"/>
+    <sheet name="CUSTOM2" sheetId="6" r:id="rId5"/>
+    <sheet name="REFERENCE" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Hour</t>
   </si>
@@ -145,6 +146,9 @@
   </si>
   <si>
     <t>27.08.2020</t>
+  </si>
+  <si>
+    <t>31.08.2020</t>
   </si>
   <si>
     <t>Monday</t>
@@ -1029,9 +1033,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464A08ED-D541-48AF-86B1-20BC512AD64B}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD11"/>
     </sheetView>
   </sheetViews>
@@ -1095,6 +1099,14 @@
       </c>
       <c r="B7" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="0">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1162,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1202,7 +1214,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1250,7 +1262,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1258,7 +1270,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1274,7 +1286,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1282,7 +1294,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1290,7 +1302,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1298,7 +1310,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1314,7 +1326,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1324,6 +1336,226 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6874AF2-7FEB-4380-B4DC-BA3F1A892D74}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" customWidth="1" style="2"/>
+    <col min="3" max="16384" width="11.42578125" customWidth="1" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86BCECD-C22B-4492-AFAE-CB496A84C031}">
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -1341,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">

--- a/CONFIG/prtg-SCHEDULENAME-config.xlsx
+++ b/CONFIG/prtg-SCHEDULENAME-config.xlsx
@@ -1106,7 +1106,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
